--- a/Control_Lines.xlsx
+++ b/Control_Lines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imohm\Desktop\single-cycle-datapath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12FE516-5B72-487F-AB34-0D6B62AB7508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD316EC-EB64-447D-9D36-AB3E29AC13EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,11 +24,176 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+  <si>
+    <t>Control Lines</t>
+  </si>
+  <si>
+    <t>ALU CTRL</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>ALUOp</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>funct</t>
+  </si>
+  <si>
+    <t>ALU function</t>
+  </si>
+  <si>
+    <t>ALU control</t>
+  </si>
+  <si>
+    <t>Iw</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>load word</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>store word</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>branch equal</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>R-type</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>100100</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>set-on-less-than</t>
+  </si>
+  <si>
+    <t>101010</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>RegDst</t>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+  </si>
+  <si>
+    <t>Memto- Reg</t>
+  </si>
+  <si>
+    <t>Reg- Write</t>
+  </si>
+  <si>
+    <t>Mem- Read</t>
+  </si>
+  <si>
+    <t>Mem- Write</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>ALUOp1</t>
+  </si>
+  <si>
+    <t>ALUOpO</t>
+  </si>
+  <si>
+    <t>R-format</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>beg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,15 +216,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0950B236-5F0B-4EA7-9E1F-355F2D4ECF15}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -337,14 +516,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Control_Lines.xlsx
+++ b/Control_Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imohm\Desktop\single-cycle-datapath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD316EC-EB64-447D-9D36-AB3E29AC13EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98610E0-5AB5-4F63-A45D-5759E5B6926A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>Control Lines</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>beg</t>
+  </si>
+  <si>
+    <t>NOR</t>
   </si>
 </sst>
 </file>
@@ -230,11 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S12"/>
+  <dimension ref="A2:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="S13" sqref="N4:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,34 +550,34 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -596,34 +600,34 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -646,34 +650,34 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -696,34 +700,34 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -746,34 +750,34 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -875,7 +879,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>100101</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="S5:S12 Q8:Q12 B5:J8" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>